--- a/i_input/Data_Model.xlsx
+++ b/i_input/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Seafile\Mia Libreria\GitHub_Repo\ConcePTIONAlgorithmPregnancies\i_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED377C9-04A4-4A52-8DAF-7CCA0B8C2B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C53799-7D98-4F11-8D83-31A6542A59B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -64,9 +64,6 @@
     <t>D3_pregnancies_reconciled</t>
   </si>
   <si>
-    <t>Here is represented the datamodel of the pregnancies script output</t>
-  </si>
-  <si>
     <t>Variable name</t>
   </si>
   <si>
@@ -151,163 +148,162 @@
     <t>whether the start of pregnancy was imputed</t>
   </si>
   <si>
-    <t>1 = imputed
+    <t>imputed_end_of_pregnancy</t>
+  </si>
+  <si>
+    <t>whether the end of pregnancy was imputed</t>
+  </si>
+  <si>
+    <t>highest_quality</t>
+  </si>
+  <si>
+    <t>quality of the highest quality record in the group</t>
+  </si>
+  <si>
+    <t>number_of_records_in_the_group</t>
+  </si>
+  <si>
+    <t>number of records in the group</t>
+  </si>
+  <si>
+    <t>number_green</t>
+  </si>
+  <si>
+    <t>number of records in the group of quality green</t>
+  </si>
+  <si>
+    <t>number_yellow</t>
+  </si>
+  <si>
+    <t>number of records in the group of quality yellow</t>
+  </si>
+  <si>
+    <t>number_blue</t>
+  </si>
+  <si>
+    <t>number of records in the group of quality blue</t>
+  </si>
+  <si>
+    <t>number_red</t>
+  </si>
+  <si>
+    <t>number of records in the group of quality red</t>
+  </si>
+  <si>
+    <t>PROMPT</t>
+  </si>
+  <si>
+    <t>whether the pregnancy was included by the PROMPT stream</t>
+  </si>
+  <si>
+    <t>CONCEPTSET</t>
+  </si>
+  <si>
+    <t>whether the pregnancy was included by the CONCEPTSET stream</t>
+  </si>
+  <si>
+    <t>EUROCAT</t>
+  </si>
+  <si>
+    <t>whether the pregnancy was included by the EUROCAT stream</t>
+  </si>
+  <si>
+    <t>ITEMSET</t>
+  </si>
+  <si>
+    <t>whether the pregnancy was included by the ITEMSET stream</t>
+  </si>
+  <si>
+    <t>algorithm_for_reconciliation</t>
+  </si>
+  <si>
+    <t>string that explain the riconciliation</t>
+  </si>
+  <si>
+    <t>GGDE</t>
+  </si>
+  <si>
+    <t>whether the pregnancy is composed by two green records that are discordant on the end of pregnancy</t>
+  </si>
+  <si>
+    <t>GGDS</t>
+  </si>
+  <si>
+    <t>whether the pregnancy is composed by two green records that are discordant on the start of pregnancy</t>
+  </si>
+  <si>
+    <t>INSUF_QUALITY</t>
+  </si>
+  <si>
+    <t>whether the pregnancy is composed by only blue or red records</t>
+  </si>
+  <si>
+    <t>meaning_of_principal_record</t>
+  </si>
+  <si>
+    <t>meaning of the principal record</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>string that reports the name of the concept (or the meaning) of all the records that compose the pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from_itemsets_ITEMSET_NAME \n
+from_conceptset_Gestation_WEEK  \n
+imputed_from_OTHER_STREAM_NAME  \n
+updated_from_blue_record  </t>
+  </si>
+  <si>
+    <t>from_conceptset_CONCEPT_NAME  \n
+REGISTRY_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB = livebirth  \n
+SB = stillbirth  \n
+SA = spontaneous abortion  \n
+T = termination  \n
+ECT = ectopic pregnancy  \n
+UKN = unknown   \n
+ONGOING = pregnancy was ongoing at the time of CDM instance creation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth_registry_mother   \n
+hospitalisation_primary  \n
+spontaneous_abortion_registry   \n
+induced_termination_registry  \n
+italian_outpatient  \n
+emergency_room_diagnosis   \n
+first_encounter_for_ongoing_pregnancy  \n
+service_for_ongoing_pregnancy  \n
+hospitalisation_secondary   \n
+service_before_termination  </t>
+  </si>
+  <si>
+    <t>green   \n
+yellow  \n
+blue   \n
+red</t>
+  </si>
+  <si>
+    <t>1 = GGDE  \n
+0 = not GGDE</t>
+  </si>
+  <si>
+    <t>1 = GGDS  \n
+0 = not GGDS</t>
+  </si>
+  <si>
+    <t>1 = INSUF_QUALITY  \n
+0 = not INSUF_QUALITY</t>
+  </si>
+  <si>
+    <t>1 = imputed  \n
 0 = not imputed</t>
   </si>
   <si>
-    <t>imputed_end_of_pregnancy</t>
-  </si>
-  <si>
-    <t>whether the end of pregnancy was imputed</t>
-  </si>
-  <si>
-    <t>highest_quality</t>
-  </si>
-  <si>
-    <t>quality of the highest quality record in the group</t>
-  </si>
-  <si>
-    <t>green 
-yellow
-blue 
-red</t>
-  </si>
-  <si>
-    <t>number_of_records_in_the_group</t>
-  </si>
-  <si>
-    <t>number of records in the group</t>
-  </si>
-  <si>
-    <t>number_green</t>
-  </si>
-  <si>
-    <t>number of records in the group of quality green</t>
-  </si>
-  <si>
-    <t>number_yellow</t>
-  </si>
-  <si>
-    <t>number of records in the group of quality yellow</t>
-  </si>
-  <si>
-    <t>number_blue</t>
-  </si>
-  <si>
-    <t>number of records in the group of quality blue</t>
-  </si>
-  <si>
-    <t>number_red</t>
-  </si>
-  <si>
-    <t>number of records in the group of quality red</t>
-  </si>
-  <si>
-    <t>PROMPT</t>
-  </si>
-  <si>
-    <t>whether the pregnancy was included by the PROMPT stream</t>
-  </si>
-  <si>
-    <t>yes’ = yes
-‘no’ = no</t>
-  </si>
-  <si>
-    <t>CONCEPTSET</t>
-  </si>
-  <si>
-    <t>whether the pregnancy was included by the CONCEPTSET stream</t>
-  </si>
-  <si>
-    <t>EUROCAT</t>
-  </si>
-  <si>
-    <t>whether the pregnancy was included by the EUROCAT stream</t>
-  </si>
-  <si>
-    <t>ITEMSET</t>
-  </si>
-  <si>
-    <t>whether the pregnancy was included by the ITEMSET stream</t>
-  </si>
-  <si>
-    <t>algorithm_for_reconciliation</t>
-  </si>
-  <si>
-    <t>string that explain the riconciliation</t>
-  </si>
-  <si>
-    <t>GGDE</t>
-  </si>
-  <si>
-    <t>whether the pregnancy is composed by two green records that are discordant on the end of pregnancy</t>
-  </si>
-  <si>
-    <t>1 = GGDE
-0 = not GGDE</t>
-  </si>
-  <si>
-    <t>GGDS</t>
-  </si>
-  <si>
-    <t>whether the pregnancy is composed by two green records that are discordant on the start of pregnancy</t>
-  </si>
-  <si>
-    <t>1 = GGDS
-0 = not GGDS</t>
-  </si>
-  <si>
-    <t>INSUF_QUALITY</t>
-  </si>
-  <si>
-    <t>whether the pregnancy is composed by only blue or red records</t>
-  </si>
-  <si>
-    <t>1 = INSUF_QUALITY
-0 = not INSUF_QUALITY</t>
-  </si>
-  <si>
-    <t>LB = livebirth
-SB = stillbirth
-SA = spontaneous abortion
-T = termination
-ECT = ectopic pregnancy
-UKN = unknown 
-ONGOING = pregnancy was ongoing at the time of CDM instance creation</t>
-  </si>
-  <si>
-    <t>meaning_of_principal_record</t>
-  </si>
-  <si>
-    <t>meaning of the principal record</t>
-  </si>
-  <si>
-    <t>birth_registry_mother 
-hospitalisation_primary
-spontaneous_abortion_registry 
-induced_termination_registry
-italian_outpatient
-emergency_room_diagnosis 
-first_encounter_for_ongoing_pregnancy
-service_for_ongoing_pregnancy
-hospitalisation_secondary 
-service_before_termination</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>string that reports the name of the concept (or the meaning) of all the records that compose the pregnancy</t>
-  </si>
-  <si>
-    <t>from_itemsets_ITEMSET_NAME
-from_conceptset_Gestation_WEEK
-imputed_from_OTHER_STREAM_NAME
-updated_from_blue_record</t>
-  </si>
-  <si>
-    <t>from_conceptset_CONCEPT_NAME
-REGISTRY_NAME</t>
+    <t>The datamodel of the pregnancies script output is show below, and also available at this [link](https://docs.google.com/spreadsheets/d/1MIXsyoahWilwsWFELRz0ZOscJCBSha5qySMu9unxObI/edit#gid=0).</t>
   </si>
 </sst>
 </file>
@@ -677,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87FEA8-A6F6-49F1-8D04-8D37CFB2FED4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -708,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -721,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51382E1-CE6E-43AF-87D8-C4DC1736B489}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -736,36 +732,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,452 +769,452 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="252" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
       <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/i_input/Data_Model.xlsx
+++ b/i_input/Data_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Seafile\Mia Libreria\GitHub_Repo\ConcePTIONAlgorithmPregnancies\i_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C53799-7D98-4F11-8D83-31A6542A59B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C123B3-9E1D-4C49-AE77-275A4680E9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -250,60 +250,60 @@
     <t>string that reports the name of the concept (or the meaning) of all the records that compose the pregnancy</t>
   </si>
   <si>
-    <t xml:space="preserve">from_itemsets_ITEMSET_NAME \n
-from_conceptset_Gestation_WEEK  \n
-imputed_from_OTHER_STREAM_NAME  \n
+    <t>The datamodel of the pregnancies script output is show below, and also available at this [link](https://docs.google.com/spreadsheets/d/1MIXsyoahWilwsWFELRz0ZOscJCBSha5qySMu9unxObI/edit#gid=0).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from_itemsets_ITEMSET_NAME  
+from_conceptset_Gestation_WEEK   
+imputed_from_OTHER_STREAM_NAME   
 updated_from_blue_record  </t>
   </si>
   <si>
-    <t>from_conceptset_CONCEPT_NAME  \n
+    <t>from_conceptset_CONCEPT_NAME   
 REGISTRY_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">LB = livebirth  \n
-SB = stillbirth  \n
-SA = spontaneous abortion  \n
-T = termination  \n
-ECT = ectopic pregnancy  \n
-UKN = unknown   \n
+    <t xml:space="preserve">LB = livebirth   
+SB = stillbirth   
+SA = spontaneous abortion   
+T = termination   
+ECT = ectopic pregnancy   
+UKN = unknown    
 ONGOING = pregnancy was ongoing at the time of CDM instance creation  </t>
   </si>
   <si>
-    <t xml:space="preserve">birth_registry_mother   \n
-hospitalisation_primary  \n
-spontaneous_abortion_registry   \n
-induced_termination_registry  \n
-italian_outpatient  \n
-emergency_room_diagnosis   \n
-first_encounter_for_ongoing_pregnancy  \n
-service_for_ongoing_pregnancy  \n
-hospitalisation_secondary   \n
+    <t xml:space="preserve">birth_registry_mother    
+hospitalisation_primary   
+spontaneous_abortion_registry    
+induced_termination_registry   
+italian_outpatient   
+emergency_room_diagnosis    
+first_encounter_for_ongoing_pregnancy   
+service_for_ongoing_pregnancy   
+hospitalisation_secondary    
 service_before_termination  </t>
   </si>
   <si>
-    <t>green   \n
-yellow  \n
-blue   \n
+    <t>1 = imputed   
+0 = not imputed</t>
+  </si>
+  <si>
+    <t>green    
+yellow   
+blue    
 red</t>
   </si>
   <si>
-    <t>1 = GGDE  \n
+    <t>1 = GGDE   
 0 = not GGDE</t>
   </si>
   <si>
-    <t>1 = GGDS  \n
+    <t>1 = GGDS   
 0 = not GGDS</t>
   </si>
   <si>
-    <t>1 = INSUF_QUALITY  \n
+    <t>1 = INSUF_QUALITY   
 0 = not INSUF_QUALITY</t>
-  </si>
-  <si>
-    <t>1 = imputed  \n
-0 = not imputed</t>
-  </si>
-  <si>
-    <t>The datamodel of the pregnancies script output is show below, and also available at this [link](https://docs.google.com/spreadsheets/d/1MIXsyoahWilwsWFELRz0ZOscJCBSha5qySMu9unxObI/edit#gid=0).</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87FEA8-A6F6-49F1-8D04-8D37CFB2FED4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51382E1-CE6E-43AF-87D8-C4DC1736B489}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -976,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -1211,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>

--- a/i_input/Data_Model.xlsx
+++ b/i_input/Data_Model.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Seafile\Mia Libreria\GitHub_Repo\ConcePTIONAlgorithmPregnancies\i_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C123B3-9E1D-4C49-AE77-275A4680E9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28EF86C-DCC8-497F-9290-92B3395E60B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0557C3D9-A9FA-3B4A-B391-DE6D8D1C5661}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
-    <sheet name="D3_pregnancies_reconciled" sheetId="9" r:id="rId2"/>
+    <sheet name="D3_PERSONS" sheetId="10" r:id="rId2"/>
+    <sheet name="D3_pregnancies_reconciled" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
   <si>
     <t>Description</t>
   </si>
@@ -305,12 +306,75 @@
     <t>1 = INSUF_QUALITY   
 0 = not INSUF_QUALITY</t>
   </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>vocabulary</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>unique person identifier</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>from cdm persons</t>
+  </si>
+  <si>
+    <t>day_of_birth</t>
+  </si>
+  <si>
+    <t>month_of_birth</t>
+  </si>
+  <si>
+    <t>year_of_birth</t>
+  </si>
+  <si>
+    <t>day_of_death</t>
+  </si>
+  <si>
+    <t>month_of_death</t>
+  </si>
+  <si>
+    <t>year_of_death</t>
+  </si>
+  <si>
+    <t>sex_at_instance_creation</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>country_of_birth</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>date_birth</t>
+  </si>
+  <si>
+    <t>date_death</t>
+  </si>
+  <si>
+    <t>D3_PERSONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DataModel of the main datasets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,7 +383,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -348,18 +427,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{981ADBA2-75DB-48B4-9348-D3192CFB335A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,16 +756,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87FEA8-A6F6-49F1-8D04-8D37CFB2FED4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="127.75" customWidth="1"/>
+    <col min="2" max="2" width="171.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,28 +781,243 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692CB24B-8E41-4ADA-9B25-56FC06FE9353}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51382E1-CE6E-43AF-87D8-C4DC1736B489}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
